--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H2">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I2">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J2">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>69.1892208921105</v>
+        <v>558.42731890498</v>
       </c>
       <c r="R2">
-        <v>276.756883568442</v>
+        <v>2233.70927561992</v>
       </c>
       <c r="S2">
-        <v>0.009219750362383419</v>
+        <v>0.05040416996064347</v>
       </c>
       <c r="T2">
-        <v>0.00696858029589248</v>
+        <v>0.04177744391223413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H3">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I3">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J3">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>41.50320656877551</v>
+        <v>54.35322122272584</v>
       </c>
       <c r="R3">
-        <v>249.019239412653</v>
+        <v>326.119327336355</v>
       </c>
       <c r="S3">
-        <v>0.005530474239610559</v>
+        <v>0.004905972375762103</v>
       </c>
       <c r="T3">
-        <v>0.0062701622546635</v>
+        <v>0.006099465161019629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H4">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I4">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J4">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>0.964686223026</v>
+        <v>1.645665272165834</v>
       </c>
       <c r="R4">
-        <v>5.788117338156001</v>
+        <v>9.873991632995001</v>
       </c>
       <c r="S4">
-        <v>0.0001285484362976031</v>
+        <v>0.0001485392803475818</v>
       </c>
       <c r="T4">
-        <v>0.0001457414894723394</v>
+        <v>0.0001846749423211461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H5">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I5">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J5">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>1409.178763091195</v>
+        <v>2265.31681077639</v>
       </c>
       <c r="R5">
-        <v>5636.715052364782</v>
+        <v>9061.26724310556</v>
       </c>
       <c r="S5">
-        <v>0.1877789089709861</v>
+        <v>0.2044696054071536</v>
       </c>
       <c r="T5">
-        <v>0.1419292663691085</v>
+        <v>0.169474420039531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H6">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I6">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J6">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>232.031549106492</v>
+        <v>7.035465732720833</v>
       </c>
       <c r="R6">
-        <v>1392.189294638952</v>
+        <v>42.21279439632499</v>
       </c>
       <c r="S6">
-        <v>0.03091916531759794</v>
+        <v>0.0006350276903352649</v>
       </c>
       <c r="T6">
-        <v>0.03505453147789276</v>
+        <v>0.0007895130622053327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H7">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I7">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J7">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>2.1534086770445</v>
+        <v>1.792482475653333</v>
       </c>
       <c r="R7">
-        <v>12.920452062267</v>
+        <v>10.75489485392</v>
       </c>
       <c r="S7">
-        <v>0.0002869506286463261</v>
+        <v>0.0001617911378896543</v>
       </c>
       <c r="T7">
-        <v>0.000325329605154594</v>
+        <v>0.0002011506248578034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J8">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>31.70072181738</v>
+        <v>195.36813541168</v>
       </c>
       <c r="R8">
-        <v>190.20433090428</v>
+        <v>1172.20881247008</v>
       </c>
       <c r="S8">
-        <v>0.004224252530887111</v>
+        <v>0.01763410988111045</v>
       </c>
       <c r="T8">
-        <v>0.004789236442623815</v>
+        <v>0.02192402048507597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J9">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
         <v>19.01570199811333</v>
@@ -1013,10 +1013,10 @@
         <v>171.14131798302</v>
       </c>
       <c r="S9">
-        <v>0.002533921080878537</v>
+        <v>0.001716374974837042</v>
       </c>
       <c r="T9">
-        <v>0.004309240662534811</v>
+        <v>0.003200885133593382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J10">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>0.4419944205599999</v>
+        <v>0.5757428851533334</v>
       </c>
       <c r="R10">
-        <v>3.977949785039999</v>
+        <v>5.18168596638</v>
       </c>
       <c r="S10">
-        <v>5.889758789861126E-05</v>
+        <v>5.196708909908786E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001001625041178936</v>
+        <v>9.691395258730447E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J11">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>645.6494723270901</v>
+        <v>792.5305701482399</v>
       </c>
       <c r="R11">
-        <v>3873.89683396254</v>
+        <v>4755.18342088944</v>
       </c>
       <c r="S11">
-        <v>0.08603546737059917</v>
+        <v>0.07153454747717092</v>
       </c>
       <c r="T11">
-        <v>0.09754251022556992</v>
+        <v>0.0889370030499875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J12">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>106.31088912752</v>
+        <v>2.461387141033333</v>
       </c>
       <c r="R12">
-        <v>956.7980021476799</v>
+        <v>22.1524842693</v>
       </c>
       <c r="S12">
-        <v>0.01416636646461387</v>
+        <v>0.0002221670960490684</v>
       </c>
       <c r="T12">
-        <v>0.02409162734796706</v>
+        <v>0.000414321675241503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J13">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>0.9866364810866667</v>
+        <v>0.6271074984533332</v>
       </c>
       <c r="R13">
-        <v>8.879728329780001</v>
+        <v>5.643967486079999</v>
       </c>
       <c r="S13">
-        <v>0.0001314733991328519</v>
+        <v>5.66033069399569E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002235864888848571</v>
+        <v>0.0001055600823552749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H14">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I14">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J14">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>36.376249710013</v>
+        <v>126.217581172816</v>
       </c>
       <c r="R14">
-        <v>218.257498260078</v>
+        <v>757.3054870368959</v>
       </c>
       <c r="S14">
-        <v>0.00484728599515542</v>
+        <v>0.01139251644409332</v>
       </c>
       <c r="T14">
-        <v>0.00549559917786051</v>
+        <v>0.01416401313028103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H15">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I15">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J15">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>21.82032094661411</v>
+        <v>12.28509401211933</v>
       </c>
       <c r="R15">
-        <v>196.382888519527</v>
+        <v>110.565846109074</v>
       </c>
       <c r="S15">
-        <v>0.002907648176420033</v>
+        <v>0.001108864028686087</v>
       </c>
       <c r="T15">
-        <v>0.004944808995326011</v>
+        <v>0.002067931796159371</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H16">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I16">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J16">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.507184016356</v>
+        <v>0.3719586829673334</v>
       </c>
       <c r="R16">
-        <v>4.564656147204</v>
+        <v>3.347628146706</v>
       </c>
       <c r="S16">
-        <v>6.758437164489758E-05</v>
+        <v>3.357333719164394E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001149354352989882</v>
+        <v>6.261125772476019E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H17">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I17">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J17">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>740.8760773905132</v>
+        <v>512.014363851288</v>
       </c>
       <c r="R17">
-        <v>4445.25646434308</v>
+        <v>3072.086183107728</v>
       </c>
       <c r="S17">
-        <v>0.09872480705706686</v>
+        <v>0.04621489340538944</v>
       </c>
       <c r="T17">
-        <v>0.1119290194635727</v>
+        <v>0.05745774958682272</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H18">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I18">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J18">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>121.9906433700187</v>
+        <v>1.590179128323333</v>
       </c>
       <c r="R18">
-        <v>1097.915790330168</v>
+        <v>14.31161215491</v>
       </c>
       <c r="S18">
-        <v>0.01625575868489604</v>
+        <v>0.0001435310493208795</v>
       </c>
       <c r="T18">
-        <v>0.0276448926740135</v>
+        <v>0.0002676725125428264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H19">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I19">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J19">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>1.132155135639222</v>
+        <v>0.4051427906773333</v>
       </c>
       <c r="R19">
-        <v>10.189396220753</v>
+        <v>3.646285116096</v>
       </c>
       <c r="S19">
-        <v>0.0001508643627937457</v>
+        <v>3.656856566342962E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002565631785394092</v>
+        <v>6.819708974142932E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H20">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I20">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J20">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>92.71017560475001</v>
+        <v>756.205924214244</v>
       </c>
       <c r="R20">
-        <v>370.840702419</v>
+        <v>3024.823696856976</v>
       </c>
       <c r="S20">
-        <v>0.01235401503452962</v>
+        <v>0.06825585109998156</v>
       </c>
       <c r="T20">
-        <v>0.009337557131267845</v>
+        <v>0.05657379128032129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H21">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I21">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J21">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>55.61226907225001</v>
+        <v>73.60354068878651</v>
       </c>
       <c r="R21">
-        <v>333.6736144335</v>
+        <v>441.621244132719</v>
       </c>
       <c r="S21">
-        <v>0.007410565277666059</v>
+        <v>0.00664352414179436</v>
       </c>
       <c r="T21">
-        <v>0.008401711078761599</v>
+        <v>0.0082597171254909</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H22">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I22">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J22">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>1.292632407</v>
+        <v>2.2285117256185</v>
       </c>
       <c r="R22">
-        <v>7.755794442</v>
+        <v>13.371070353711</v>
       </c>
       <c r="S22">
-        <v>0.0001722486241238446</v>
+        <v>0.0002011475441381026</v>
       </c>
       <c r="T22">
-        <v>0.0001952864753737835</v>
+        <v>0.0002500813995114326</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H23">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I23">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J23">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>1888.230694032375</v>
+        <v>3067.625695480542</v>
       </c>
       <c r="R23">
-        <v>7552.922776129501</v>
+        <v>12270.50278192217</v>
       </c>
       <c r="S23">
-        <v>0.2516145636719201</v>
+        <v>0.2768867526643126</v>
       </c>
       <c r="T23">
-        <v>0.1901782826699499</v>
+        <v>0.2294972973169914</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H24">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I24">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J24">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>310.910939394</v>
+        <v>9.527221693097498</v>
       </c>
       <c r="R24">
-        <v>1865.465636364</v>
+        <v>57.163330158585</v>
       </c>
       <c r="S24">
-        <v>0.0414301709021508</v>
+        <v>0.0008599359043057973</v>
       </c>
       <c r="T24">
-        <v>0.04697135951458958</v>
+        <v>0.00106913547147895</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H25">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I25">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J25">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>2.88546241775</v>
+        <v>2.427327283696</v>
       </c>
       <c r="R25">
-        <v>17.3127745065</v>
+        <v>14.563963702176</v>
       </c>
       <c r="S25">
-        <v>0.0003844998227856589</v>
+        <v>0.0002190928216001883</v>
       </c>
       <c r="T25">
-        <v>0.00043592577621792</v>
+        <v>0.0002723922863858862</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H26">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I26">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J26">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N26">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O26">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P26">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q26">
-        <v>56.474201689263</v>
+        <v>154.6548606013227</v>
       </c>
       <c r="R26">
-        <v>338.845210135578</v>
+        <v>927.9291636079359</v>
       </c>
       <c r="S26">
-        <v>0.007525421370213298</v>
+        <v>0.0139592917736804</v>
       </c>
       <c r="T26">
-        <v>0.00853192890548066</v>
+        <v>0.01735521672863987</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H27">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I27">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J27">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.157581</v>
       </c>
       <c r="O27">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P27">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q27">
-        <v>33.876092667253</v>
+        <v>15.05297030939822</v>
       </c>
       <c r="R27">
-        <v>304.884834005277</v>
+        <v>135.476732784584</v>
       </c>
       <c r="S27">
-        <v>0.004514129710060868</v>
+        <v>0.001358695121462228</v>
       </c>
       <c r="T27">
-        <v>0.007676826026407419</v>
+        <v>0.002533844340038346</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H28">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I28">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J28">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N28">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O28">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P28">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q28">
-        <v>0.787404217356</v>
+        <v>0.4557623250995557</v>
       </c>
       <c r="R28">
-        <v>7.086637956204</v>
+        <v>4.101860925896</v>
       </c>
       <c r="S28">
-        <v>0.0001049248744920904</v>
+        <v>4.113753199077449E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001784374971599011</v>
+        <v>7.671780147837099E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H29">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I29">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J29">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N29">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O29">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P29">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q29">
-        <v>1150.211617603472</v>
+        <v>627.3730595334081</v>
       </c>
       <c r="R29">
-        <v>6901.26970562083</v>
+        <v>3764.238357200448</v>
       </c>
       <c r="S29">
-        <v>0.1532704638306811</v>
+        <v>0.05662727673040566</v>
       </c>
       <c r="T29">
-        <v>0.1737700304582879</v>
+        <v>0.07040318924072057</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H30">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I30">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J30">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N30">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O30">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P30">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q30">
-        <v>189.390722045352</v>
+        <v>1.948452261062222</v>
       </c>
       <c r="R30">
-        <v>1704.516498408168</v>
+        <v>17.53607034956</v>
       </c>
       <c r="S30">
-        <v>0.02523709843376484</v>
+        <v>0.0001758691160012739</v>
       </c>
       <c r="T30">
-        <v>0.04291875212525061</v>
+        <v>0.0003279801017374624</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H31">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I31">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J31">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N31">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O31">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P31">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q31">
-        <v>1.757673151667</v>
+        <v>0.4964229327928889</v>
       </c>
       <c r="R31">
-        <v>15.819058365003</v>
+        <v>4.467806395136</v>
       </c>
       <c r="S31">
-        <v>0.0002342172301998169</v>
+        <v>4.480759631516431E-05</v>
       </c>
       <c r="T31">
-        <v>0.0003983148567095047</v>
+        <v>8.356214173472211E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H32">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I32">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J32">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N32">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O32">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P32">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q32">
-        <v>9.402065439828</v>
+        <v>350.9502939468773</v>
       </c>
       <c r="R32">
-        <v>56.412392638968</v>
+        <v>2105.701763681263</v>
       </c>
       <c r="S32">
-        <v>0.001252864176360328</v>
+        <v>0.03167710043004925</v>
       </c>
       <c r="T32">
-        <v>0.001420431834320917</v>
+        <v>0.03938329767810629</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H33">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I33">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J33">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.157581</v>
       </c>
       <c r="O33">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P33">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q33">
-        <v>5.639836076934667</v>
+        <v>34.15892869009345</v>
       </c>
       <c r="R33">
-        <v>50.758524692412</v>
+        <v>307.430358210841</v>
       </c>
       <c r="S33">
-        <v>0.0007515315253395299</v>
+        <v>0.003083216721461899</v>
       </c>
       <c r="T33">
-        <v>0.001278070667870635</v>
+        <v>0.005749922197689297</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H34">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I34">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J34">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N34">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O34">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P34">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q34">
-        <v>0.131090405136</v>
+        <v>1.034237923992111</v>
       </c>
       <c r="R34">
-        <v>1.179813646224</v>
+        <v>9.308141315928999</v>
       </c>
       <c r="S34">
-        <v>1.746833964415173E-05</v>
+        <v>9.335127837739557E-05</v>
       </c>
       <c r="T34">
-        <v>2.970703392050742E-05</v>
+        <v>0.0001740917477479024</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H35">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I35">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J35">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N35">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O35">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P35">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q35">
-        <v>191.492125162954</v>
+        <v>1423.665307391692</v>
       </c>
       <c r="R35">
-        <v>1148.952750977724</v>
+        <v>8541.991844350152</v>
       </c>
       <c r="S35">
-        <v>0.0255171191061357</v>
+        <v>0.1285013567415615</v>
       </c>
       <c r="T35">
-        <v>0.02892997420024353</v>
+        <v>0.1597623240728407</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H36">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I36">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J36">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N36">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O36">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P36">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q36">
-        <v>31.530573414112</v>
+        <v>4.421522162979444</v>
       </c>
       <c r="R36">
-        <v>283.775160727008</v>
+        <v>39.79369946681499</v>
       </c>
       <c r="S36">
-        <v>0.004201579551159022</v>
+        <v>0.0003990907089298212</v>
       </c>
       <c r="T36">
-        <v>0.007145296507202905</v>
+        <v>0.0007442683189260508</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H37">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I37">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J37">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N37">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O37">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P37">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q37">
-        <v>0.2926249065853334</v>
+        <v>1.126506942673778</v>
       </c>
       <c r="R37">
-        <v>2.633624159268</v>
+        <v>10.138562484064</v>
       </c>
       <c r="S37">
-        <v>3.899348126407621E-05</v>
+        <v>0.0001016795659490927</v>
       </c>
       <c r="T37">
-        <v>6.631315249119281E-05</v>
+        <v>0.0001896232558783253</v>
       </c>
     </row>
   </sheetData>
